--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1937683.866982424</v>
+        <v>2006372.569710851</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6538758.560422716</v>
+        <v>5301029.811029742</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3353501.821537508</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7052287.844199212</v>
+        <v>7424977.025793625</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>234.3013016301429</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>174.9215926043821</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -716,13 +718,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>178.6173300078275</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -877,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.06736062834933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>405.8457014450099</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>106.2855456288091</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>116.2725155264517</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>80.9873714706937</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>377.6179968714875</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1148,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>3.620925407613472</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>7.885720260407167</v>
+        <v>121.473502675362</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1341,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>372.3536886992977</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1429,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.726487458021606</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1591,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>158.2299349797475</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1667,13 +1669,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>38.31000619732077</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>69.56255067400139</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>165.4216953850582</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1855,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>39.64108301376439</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.30037007304938</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>79.20507481715914</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -2059,7 +2061,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,10 +2137,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>158.3449400448986</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>251.7770825835747</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>46.41181838296803</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>123.8394724344234</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>146.0155794799365</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2533,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>178.2631698926538</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>96.0851398248662</v>
       </c>
       <c r="T26" t="n">
         <v>219.9844192126098</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,16 +2763,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>158.5219654995512</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>157.8359084761803</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>380.4549498986235</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>59.88390027675852</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3007,16 +3009,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>271.4342543713331</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3035,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>53.20093248929918</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3044,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>12.41818240615973</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -3247,13 +3249,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>100.9683339716594</v>
       </c>
     </row>
     <row r="35">
@@ -3269,13 +3271,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3284,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>370.9729458835154</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3424,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>22.7329262482293</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>102.6252784235419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3509,19 +3511,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>364.349651285939</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3661,10 +3663,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>45.17367983976721</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>21.41323588437463</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>191.483448216253</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3904,10 +3906,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>55.00479052488897</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>165.4216953850578</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>191.483448216253</v>
+        <v>300.4920170745502</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.3133602664314</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>231.455100963169</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>397.1860551390245</v>
+        <v>332.990926276226</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5180736944356</v>
+        <v>326.9067396299002</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>326.4832137633648</v>
       </c>
       <c r="E2" t="n">
         <v>149.794736385201</v>
@@ -4328,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>295.9505570973564</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L2" t="n">
-        <v>295.9505570973564</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M2" t="n">
-        <v>295.9505570973564</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
-        <v>812.7934917636817</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1608.987305686471</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>1608.987305686471</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>1208.343907855424</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y2" t="n">
-        <v>807.4072348035139</v>
+        <v>339.1717019003114</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4415,19 @@
         <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>497.571341894901</v>
       </c>
       <c r="M3" t="n">
         <v>1014.414276561226</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784822</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>322.7422574146847</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1305.469718463399</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1305.469718463399</v>
       </c>
       <c r="U4" t="n">
-        <v>862.4253276531883</v>
+        <v>1022.671571009524</v>
       </c>
       <c r="V4" t="n">
-        <v>588.5395825927103</v>
+        <v>748.7858259490456</v>
       </c>
       <c r="W4" t="n">
-        <v>309.4699181015847</v>
+        <v>748.7858259490456</v>
       </c>
       <c r="X4" t="n">
-        <v>71.12605596126804</v>
+        <v>510.441963808729</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.76508562960205</v>
+        <v>510.441963808729</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2207.554764492925</v>
+        <v>888.1518680266704</v>
       </c>
       <c r="C5" t="n">
-        <v>1797.430173806195</v>
+        <v>478.2067150519129</v>
       </c>
       <c r="D5" t="n">
-        <v>1392.966243899255</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E5" t="n">
-        <v>978.6260284161523</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F5" t="n">
-        <v>557.5956163698398</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>148.867332262672</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>148.867332262672</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>62.51556957974518</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>316.7010410474995</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>854.8605421565389</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>858.1997443063638</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1631.82991785571</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N5" t="n">
-        <v>1631.82991785571</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>2275.460774272815</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P5" t="n">
-        <v>2804.617472191967</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>3125.778478987259</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>3125.778478987259</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>3125.778478987259</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>3125.778478987259</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>3125.778478987259</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V5" t="n">
-        <v>3018.419341988462</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W5" t="n">
-        <v>3018.419341988462</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="X5" t="n">
-        <v>2617.775944157414</v>
+        <v>1295.269316702666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2617.775944157414</v>
+        <v>894.3326436507558</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741.3464114662795</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>607.3513402152253</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>490.4541824346177</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>369.9613664269457</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>261.0014866094502</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>154.0113739237889</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>83.26416095950501</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>62.51556957974518</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>255.3284271423784</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>711.1346834076771</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>1372.222855326965</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1372.222855326965</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1372.222855326965</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1372.222855326965</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P6" t="n">
-        <v>1759.160300746262</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2109.004765430245</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
-        <v>2109.004765430245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>2001.014755544554</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1841.672891731562</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1644.322080869781</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1430.610553862815</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1217.377385599144</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1041.051403738036</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>881.6494441018662</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2103.63315386169</v>
+        <v>920.3847151048558</v>
       </c>
       <c r="C7" t="n">
-        <v>2103.63315386169</v>
+        <v>749.2913426665723</v>
       </c>
       <c r="D7" t="n">
-        <v>1944.1385091846</v>
+        <v>589.7966979894823</v>
       </c>
       <c r="E7" t="n">
-        <v>1944.1385091846</v>
+        <v>472.349712609228</v>
       </c>
       <c r="F7" t="n">
-        <v>1944.1385091846</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G7" t="n">
-        <v>1862.333083456626</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>1712.725628262083</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>1596.379582366409</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>1610.46213177162</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>1765.014459493858</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>2024.911559773918</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>2314.175616214412</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>2595.014398608662</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>2854.575008935136</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>3060.250449184748</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>3125.778478987259</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>3125.778478987259</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>2939.386710867169</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>2939.386710867169</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>2656.588563413293</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>2382.702818352815</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>2103.63315386169</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>2103.63315386169</v>
+        <v>1332.820120110135</v>
       </c>
       <c r="Y7" t="n">
-        <v>2103.63315386169</v>
+        <v>1108.0844214989</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2121.203001809998</v>
+        <v>2541.96541775283</v>
       </c>
       <c r="C8" t="n">
-        <v>1711.078411123268</v>
+        <v>2131.840827066101</v>
       </c>
       <c r="D8" t="n">
-        <v>1306.614481216329</v>
+        <v>1727.376897159161</v>
       </c>
       <c r="E8" t="n">
-        <v>892.2742657332255</v>
+        <v>1313.036681676058</v>
       </c>
       <c r="F8" t="n">
-        <v>471.243853686913</v>
+        <v>892.0062696297455</v>
       </c>
       <c r="G8" t="n">
-        <v>62.51556957974518</v>
+        <v>483.2779855225776</v>
       </c>
       <c r="H8" t="n">
-        <v>62.51556957974518</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>62.51556957974518</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>600.6750706887847</v>
+        <v>878.3626980441626</v>
       </c>
       <c r="L8" t="n">
-        <v>817.6430986167989</v>
+        <v>1590.9540978564</v>
       </c>
       <c r="M8" t="n">
-        <v>1591.273272166145</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>1591.273272166145</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>2234.90412858325</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>2764.060826502402</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>3085.221833297694</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>3125.778478987259</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>3125.778478987259</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>2903.571994934118</v>
+        <v>3943.398714109398</v>
       </c>
       <c r="U8" t="n">
-        <v>2903.571994934118</v>
+        <v>3686.338222368908</v>
       </c>
       <c r="V8" t="n">
-        <v>2903.571994934118</v>
+        <v>3336.500667705388</v>
       </c>
       <c r="W8" t="n">
-        <v>2903.571994934118</v>
+        <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>2903.571994934118</v>
+        <v>2949.082866428826</v>
       </c>
       <c r="Y8" t="n">
-        <v>2502.635321882208</v>
+        <v>2548.146193376916</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>741.3464114662795</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>607.3513402152253</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>490.4541824346177</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>369.9613664269457</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>261.0014866094502</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>154.0113739237889</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
-        <v>83.26416095950501</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>255.3284271423784</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>255.3284271423784</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>255.3284271423784</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="M9" t="n">
-        <v>1028.958600691725</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="N9" t="n">
-        <v>1028.958600691725</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="O9" t="n">
-        <v>1197.454408257732</v>
+        <v>1191.397044782725</v>
       </c>
       <c r="P9" t="n">
-        <v>1759.160300746262</v>
+        <v>1753.102937271255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2109.004765430245</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="R9" t="n">
-        <v>2109.004765430245</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2001.014755544554</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
-        <v>1841.672891731562</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1644.322080869781</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1430.610553862815</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
-        <v>1217.377385599144</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1041.051403738036</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>881.6494441018662</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>561.9797758272105</v>
+        <v>358.325688414803</v>
       </c>
       <c r="C10" t="n">
-        <v>390.886403388927</v>
+        <v>358.325688414803</v>
       </c>
       <c r="D10" t="n">
-        <v>231.391758711837</v>
+        <v>358.325688414803</v>
       </c>
       <c r="E10" t="n">
-        <v>70.48094358015646</v>
+        <v>358.325688414803</v>
       </c>
       <c r="F10" t="n">
-        <v>62.51556957974518</v>
+        <v>235.6251806619121</v>
       </c>
       <c r="G10" t="n">
-        <v>62.51556957974518</v>
+        <v>235.6251806619121</v>
       </c>
       <c r="H10" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I10" t="n">
-        <v>62.51556957974518</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
-        <v>76.5981189849557</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>231.1504467071937</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>491.0475469872542</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>780.3116034277475</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1061.150385821998</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1320.710996148472</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1526.386436398084</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1591.914466200595</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1506.641747875995</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1506.641747875995</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1267.093008852697</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1267.093008852697</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="V10" t="n">
-        <v>1267.093008852697</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="W10" t="n">
-        <v>988.0233443615714</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="X10" t="n">
-        <v>749.6794822212548</v>
+        <v>583.0613870260383</v>
       </c>
       <c r="Y10" t="n">
-        <v>749.6794822212548</v>
+        <v>358.325688414803</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1712.47471770283</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>1302.3501270161</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>897.886197109161</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>483.5459816260577</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F11" t="n">
-        <v>62.51556957974518</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G11" t="n">
-        <v>62.51556957974518</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>62.51556957974518</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>62.51556957974518</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>600.6750706887847</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1313.266470501023</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>2086.896644050369</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2840.077660688987</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3125.778478987259</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3125.778478987259</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3125.778478987259</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3125.778478987259</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2990.49740378136</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>2768.290919728219</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>2511.230427987729</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2511.230427987729</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>2127.470127122897</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2127.470127122897</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2122.69589736732</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>741.3464114662795</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>607.3513402152253</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>490.4541824346177</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>369.9613664269457</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>261.0014866094502</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>154.0113739237889</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>83.26416095950501</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>62.51556957974518</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>723.6037414990334</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M12" t="n">
-        <v>723.6037414990334</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N12" t="n">
-        <v>1497.23391504838</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O12" t="n">
-        <v>2109.004765430245</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P12" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2001.014755544554</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1841.672891731562</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1644.322080869781</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1430.610553862815</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1217.377385599144</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1041.051403738036</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>881.6494441018662</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.51556957974518</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="C13" t="n">
-        <v>62.51556957974518</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="D13" t="n">
-        <v>62.51556957974518</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="E13" t="n">
-        <v>62.51556957974518</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F13" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>76.5981189849557</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>231.1504467071937</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>491.0475469872542</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>780.3116034277475</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1061.150385821998</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1320.710996148472</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1526.386436398084</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1591.914466200595</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1506.641747875995</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1320.249979755905</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1080.701240732607</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>797.9030932787316</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V13" t="n">
-        <v>524.0173482182536</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W13" t="n">
-        <v>244.9476837271279</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X13" t="n">
-        <v>62.51556957974518</v>
+        <v>670.3102285853113</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.51556957974518</v>
+        <v>445.574529974076</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1712.47471770283</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C14" t="n">
-        <v>1302.3501270161</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>897.886197109161</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>483.5459816260577</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F14" t="n">
-        <v>62.51556957974518</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G14" t="n">
-        <v>62.51556957974518</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="H14" t="n">
-        <v>62.51556957974518</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>62.51556957974518</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>600.6750706887847</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1313.266470501023</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2086.896644050369</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2086.896644050369</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2234.90412858325</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2764.060826502402</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3085.221833297694</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3125.778478987259</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2990.49740378136</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T14" t="n">
-        <v>2768.290919728219</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U14" t="n">
-        <v>2511.230427987729</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V14" t="n">
-        <v>2161.39287332421</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W14" t="n">
-        <v>2122.69589736732</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X14" t="n">
-        <v>2122.69589736732</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2122.69589736732</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>741.3464114662795</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>607.3513402152253</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>490.4541824346177</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>369.9613664269457</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>261.0014866094502</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>154.0113739237889</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>83.26416095950501</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>255.3284271423784</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>255.3284271423784</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L15" t="n">
-        <v>916.4165990616666</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M15" t="n">
-        <v>916.4165990616666</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N15" t="n">
-        <v>916.4165990616666</v>
+        <v>1159.714647364874</v>
       </c>
       <c r="O15" t="n">
-        <v>1620.373689607561</v>
+        <v>1863.671737910768</v>
       </c>
       <c r="P15" t="n">
-        <v>2109.004765430245</v>
+        <v>1863.671737910768</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>2001.014755544554</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1841.672891731562</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1644.322080869781</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1430.610553862815</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1217.377385599144</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1041.051403738036</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>881.6494441018662</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1151.849419880882</v>
+        <v>858.4517774252606</v>
       </c>
       <c r="C16" t="n">
-        <v>980.7560474425982</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="D16" t="n">
-        <v>821.2614027655081</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="E16" t="n">
-        <v>660.3505876338277</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F16" t="n">
-        <v>495.7194617444189</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>328.4690706699624</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>178.861615475419</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>76.5981189849557</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>231.1504467071937</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>491.0475469872542</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>780.3116034277475</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1061.150385821998</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1320.710996148472</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1526.386436398084</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1591.914466200595</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1506.641747875995</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1506.641747875995</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1506.641747875995</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U16" t="n">
-        <v>1506.641747875995</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V16" t="n">
-        <v>1506.641747875995</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W16" t="n">
-        <v>1506.641747875995</v>
+        <v>1083.187476036496</v>
       </c>
       <c r="X16" t="n">
-        <v>1506.641747875995</v>
+        <v>1083.187476036496</v>
       </c>
       <c r="Y16" t="n">
-        <v>1339.549126274926</v>
+        <v>858.4517774252606</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2502.881125286859</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>2092.756534600129</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1688.29260469319</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1273.952389210086</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>852.921977163774</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G17" t="n">
-        <v>444.1936930566062</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>133.2851956843242</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5555,10 +5557,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3314.038978003258</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2913.102304951348</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>524.2254458227151</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="N18" t="n">
-        <v>524.2254458227151</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O18" t="n">
-        <v>1228.182536368609</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.9445253234496</v>
+        <v>173.2488237685613</v>
       </c>
       <c r="C19" t="n">
-        <v>242.8511528851661</v>
+        <v>173.2488237685613</v>
       </c>
       <c r="D19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1297.821136963575</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1015.022989509699</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.022989509699</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W19" t="n">
-        <v>735.9533250185732</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X19" t="n">
-        <v>735.9533250185732</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="Y19" t="n">
-        <v>511.2176264073379</v>
+        <v>360.9485301626057</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5783,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C21" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D21" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E21" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>2615.69568868064</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="M21" t="n">
-        <v>3458.672769375206</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N21" t="n">
-        <v>4332.330861486824</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S21" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T21" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U21" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V21" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W21" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X21" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y21" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3946.279147638662</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C22" t="n">
-        <v>3775.185775200379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3775.185775200379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3614.274960068698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>4407.864599093185</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V22" t="n">
-        <v>4133.978854032707</v>
+        <v>781.7505967603486</v>
       </c>
       <c r="W22" t="n">
-        <v>4133.978854032707</v>
+        <v>502.6809322692229</v>
       </c>
       <c r="X22" t="n">
-        <v>4133.978854032707</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="Y22" t="n">
-        <v>4133.978854032707</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6017,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4401.813433128853</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4144.752941388363</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.672769375206</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N24" t="n">
-        <v>4332.330861486824</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>588.462840695405</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C25" t="n">
-        <v>417.3694682571215</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D25" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
         <v>93.2436976906228</v>
@@ -6172,25 +6174,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1297.821136963575</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>1015.022989509699</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.022989509699</v>
+        <v>648.5674134172316</v>
       </c>
       <c r="W25" t="n">
-        <v>735.9533250185732</v>
+        <v>648.5674134172316</v>
       </c>
       <c r="X25" t="n">
-        <v>735.9533250185732</v>
+        <v>648.5674134172316</v>
       </c>
       <c r="Y25" t="n">
-        <v>735.9533250185732</v>
+        <v>423.8317148059963</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4565.129187738346</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4342.922703685204</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4085.862211944715</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6311,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>705.4904009953962</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="N27" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>584.7425299376769</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C28" t="n">
-        <v>413.6491574993933</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D28" t="n">
-        <v>254.1545128223033</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G28" t="n">
         <v>93.2436976906228</v>
@@ -6409,25 +6411,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1377.246678512578</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1137.697939489281</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>1137.697939489281</v>
+        <v>951.9991582614847</v>
       </c>
       <c r="V28" t="n">
-        <v>863.8121944288025</v>
+        <v>951.9991582614847</v>
       </c>
       <c r="W28" t="n">
-        <v>584.7425299376769</v>
+        <v>672.929493770359</v>
       </c>
       <c r="X28" t="n">
-        <v>584.7425299376769</v>
+        <v>672.929493770359</v>
       </c>
       <c r="Y28" t="n">
-        <v>584.7425299376769</v>
+        <v>448.1937951591237</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.262653899312</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F29" t="n">
         <v>899.2322418529996</v>
@@ -6540,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1820.802819284162</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1820.802819284162</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1820.802819284162</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1383.093855288175</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>1100.295707834299</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V31" t="n">
-        <v>826.4099627738212</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W31" t="n">
-        <v>547.3402982826956</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="X31" t="n">
-        <v>308.996436142379</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>324.8258582872483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6786,19 +6788,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>324.9649248943615</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>276.8806887209868</v>
+        <v>589.8790111499956</v>
       </c>
       <c r="C34" t="n">
-        <v>105.7873162827033</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F34" t="n">
         <v>93.2436976906228</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U34" t="n">
-        <v>1068.179960412907</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V34" t="n">
-        <v>794.2942153524291</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W34" t="n">
-        <v>515.2245508613034</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="X34" t="n">
-        <v>276.8806887209868</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="Y34" t="n">
-        <v>276.8806887209868</v>
+        <v>777.5787175440399</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6977,10 +6979,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>1584.839892213121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N36" t="n">
-        <v>1584.839892213121</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O36" t="n">
-        <v>1584.839892213121</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
         <v>2110.173374178493</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>597.6952216149197</v>
+        <v>413.9445253234496</v>
       </c>
       <c r="C37" t="n">
-        <v>597.6952216149197</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="D37" t="n">
-        <v>597.6952216149197</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E37" t="n">
-        <v>574.7326698490315</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G37" t="n">
         <v>242.8511528851661</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>1433.707978589355</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1433.707978589355</v>
       </c>
       <c r="U37" t="n">
-        <v>1339.844446857597</v>
+        <v>1150.90983113548</v>
       </c>
       <c r="V37" t="n">
-        <v>1339.844446857597</v>
+        <v>877.0240860750016</v>
       </c>
       <c r="W37" t="n">
-        <v>1060.774782366472</v>
+        <v>877.0240860750016</v>
       </c>
       <c r="X37" t="n">
-        <v>822.430920226155</v>
+        <v>638.6802239346849</v>
       </c>
       <c r="Y37" t="n">
-        <v>597.6952216149197</v>
+        <v>413.9445253234496</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1688.29260469319</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7214,10 +7216,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7259,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>426.3130956607087</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="C40" t="n">
-        <v>255.2197232224252</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D40" t="n">
-        <v>255.2197232224252</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>255.2197232224252</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>255.2197232224252</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>255.2197232224252</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7357,25 +7359,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U40" t="n">
-        <v>1350.978107866783</v>
+        <v>1015.022989509699</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.092362806305</v>
+        <v>741.1372444492208</v>
       </c>
       <c r="W40" t="n">
-        <v>1077.092362806305</v>
+        <v>462.0675799580952</v>
       </c>
       <c r="X40" t="n">
-        <v>838.7485006659883</v>
+        <v>462.0675799580952</v>
       </c>
       <c r="Y40" t="n">
-        <v>614.012802054753</v>
+        <v>440.4380487617572</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.203001809998</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.078411123268</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1306.614481216329</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>892.2742657332255</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>471.243853686913</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>62.51556957974518</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>62.51556957974518</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>62.51556957974518</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>600.6750706887847</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
-        <v>1313.266470501023</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1313.266470501023</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>1952.990924651002</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2596.621781068107</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3125.778478987259</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3125.778478987259</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3125.778478987259</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3125.778478987259</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3125.778478987259</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U41" t="n">
-        <v>3125.778478987259</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>3125.778478987259</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3125.778478987259</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>2932.360854526397</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2531.424181474487</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>741.3464114662795</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C42" t="n">
-        <v>607.3513402152253</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D42" t="n">
-        <v>490.4541824346177</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E42" t="n">
-        <v>369.9613664269457</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F42" t="n">
-        <v>261.0014866094502</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G42" t="n">
-        <v>154.0113739237889</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H42" t="n">
-        <v>83.26416095950501</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I42" t="n">
-        <v>62.51556957974518</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J42" t="n">
-        <v>62.51556957974518</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K42" t="n">
-        <v>62.51556957974518</v>
+        <v>3017.117917450102</v>
       </c>
       <c r="L42" t="n">
-        <v>62.51556957974518</v>
+        <v>3017.117917450102</v>
       </c>
       <c r="M42" t="n">
-        <v>836.1457431290918</v>
+        <v>3017.117917450102</v>
       </c>
       <c r="N42" t="n">
-        <v>1405.047674884351</v>
+        <v>3017.117917450102</v>
       </c>
       <c r="O42" t="n">
-        <v>2109.004765430245</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="P42" t="n">
-        <v>2109.004765430245</v>
+        <v>4282.780900484527</v>
       </c>
       <c r="Q42" t="n">
-        <v>2109.004765430245</v>
+        <v>4632.62536516851</v>
       </c>
       <c r="R42" t="n">
-        <v>2109.004765430245</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S42" t="n">
-        <v>2001.014755544554</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T42" t="n">
-        <v>1841.672891731562</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U42" t="n">
-        <v>1644.322080869781</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V42" t="n">
-        <v>1430.610553862815</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W42" t="n">
-        <v>1217.377385599144</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X42" t="n">
-        <v>1041.051403738036</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y42" t="n">
-        <v>881.6494441018662</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>881.8678733293773</v>
+        <v>4222.119838211426</v>
       </c>
       <c r="C43" t="n">
-        <v>710.7745008910938</v>
+        <v>4051.026465773143</v>
       </c>
       <c r="D43" t="n">
-        <v>551.2798562140038</v>
+        <v>3891.531821096053</v>
       </c>
       <c r="E43" t="n">
-        <v>495.7194617444189</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F43" t="n">
-        <v>495.7194617444189</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G43" t="n">
-        <v>328.4690706699624</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H43" t="n">
-        <v>178.861615475419</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I43" t="n">
-        <v>62.51556957974518</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>76.5981189849557</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>231.1504467071937</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>491.0475469872542</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>780.3116034277475</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1061.150385821998</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1320.710996148472</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1526.386436398084</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1591.914466200595</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1591.914466200595</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S43" t="n">
-        <v>1591.914466200595</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T43" t="n">
-        <v>1352.365727177297</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U43" t="n">
-        <v>1069.567579723422</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="V43" t="n">
-        <v>1069.567579723422</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="W43" t="n">
-        <v>1069.567579723422</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="X43" t="n">
-        <v>1069.567579723422</v>
+        <v>4409.819544605471</v>
       </c>
       <c r="Y43" t="n">
-        <v>1069.567579723422</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.203001809998</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.078411123268</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1306.614481216329</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>892.2742657332255</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>471.243853686913</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>62.51556957974518</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>62.51556957974518</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>62.51556957974518</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>600.6750706887847</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
-        <v>1313.266470501023</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1313.266470501023</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2066.447487139641</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2710.078343556745</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>3125.778478987259</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3125.778478987259</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3125.778478987259</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3125.778478987259</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>3125.778478987259</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>3125.778478987259</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3125.778478987259</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W44" t="n">
-        <v>3125.778478987259</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X44" t="n">
-        <v>2932.360854526397</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2531.424181474487</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>741.3464114662795</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>607.3513402152253</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>490.4541824346177</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>369.9613664269457</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>261.0014866094502</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>154.0113739237889</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>83.26416095950501</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>62.51556957974518</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>62.51556957974518</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>62.51556957974518</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M45" t="n">
-        <v>836.1457431290918</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="N45" t="n">
-        <v>1405.047674884351</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="O45" t="n">
-        <v>2109.004765430245</v>
+        <v>2053.115206569777</v>
       </c>
       <c r="P45" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2109.004765430245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2001.014755544554</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1841.672891731562</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1644.322080869781</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1430.610553862815</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1217.377385599144</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1041.051403738036</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>881.6494441018662</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.3421677790707</v>
+        <v>3680.765361756379</v>
       </c>
       <c r="C46" t="n">
-        <v>536.2487953407872</v>
+        <v>3680.765361756379</v>
       </c>
       <c r="D46" t="n">
-        <v>376.7541506636973</v>
+        <v>3521.270717079289</v>
       </c>
       <c r="E46" t="n">
-        <v>376.7541506636973</v>
+        <v>3360.359901947609</v>
       </c>
       <c r="F46" t="n">
-        <v>212.1230247742885</v>
+        <v>3195.7287760582</v>
       </c>
       <c r="G46" t="n">
-        <v>212.1230247742885</v>
+        <v>3195.7287760582</v>
       </c>
       <c r="H46" t="n">
-        <v>62.51556957974518</v>
+        <v>3195.7287760582</v>
       </c>
       <c r="I46" t="n">
-        <v>62.51556957974518</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>76.5981189849557</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>231.1504467071937</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>491.0475469872542</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>780.3116034277475</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1061.150385821998</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1320.710996148472</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1526.386436398084</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1591.914466200595</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1591.914466200595</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S46" t="n">
-        <v>1591.914466200595</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T46" t="n">
-        <v>1591.914466200595</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="U46" t="n">
-        <v>1358.121434924667</v>
+        <v>4192.994968957174</v>
       </c>
       <c r="V46" t="n">
-        <v>1358.121434924667</v>
+        <v>3919.109223896696</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.121434924667</v>
+        <v>3919.109223896696</v>
       </c>
       <c r="X46" t="n">
-        <v>1119.77757278435</v>
+        <v>3680.765361756379</v>
       </c>
       <c r="Y46" t="n">
-        <v>895.041874173115</v>
+        <v>3680.765361756379</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>494.099071146226</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,22 +8063,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>63.89502594283658</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>237.1384347635731</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8216,25 +8218,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>98.85832952731434</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>874.7348442038602</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>236.9512395019904</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>445.1055394667395</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
-        <v>314.6450222325561</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>874.7348442038602</v>
+        <v>519.8012871361426</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8532,19 +8534,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>839.0089034852322</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>227.9492644202088</v>
+        <v>519.1254239367923</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
@@ -8553,7 +8555,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8696,22 +8698,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>874.7348442038602</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>381.7764607755526</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8771,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>723.8803540323523</v>
@@ -8778,13 +8780,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>834.6380131405647</v>
+        <v>424.7983178153489</v>
       </c>
       <c r="O12" t="n">
-        <v>675.7018329210761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8933,13 +8935,13 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>874.7348442038602</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>242.6922852549562</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
@@ -9009,22 +9011,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>547.8263782580404</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>335.5422706567122</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9240,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>492.8993828617429</v>
+        <v>204.5506456092455</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,10 +9421,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>529.7246381472005</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629454</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9723,22 +9725,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>463.04128249545</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629454</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,25 +9959,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>674.5455372500141</v>
       </c>
       <c r="M27" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>348.986108297092</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10434,22 +10436,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>291.6261293987595</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>584.8995157759063</v>
+        <v>144.6334018173235</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10905,19 +10907,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>885.2086776792871</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11066,10 +11068,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>739.0986080798311</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11078,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11141,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>461.3027815416482</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>839.0089034852322</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>627.8418093081532</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11303,7 +11305,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11312,13 +11314,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>513.5484899783725</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11378,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>839.0089034852322</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>627.8418093081532</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>141.7522481051737</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>37.84312462897452</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.2008188633692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23425,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300453</v>
+        <v>77.73048853916595</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23512,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>37.84312462897446</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23555,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>341.6126916588623</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>206.716417172213</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>57.06664624006473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23741,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>45.84716204233317</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23795,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.52233925705457</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>78.69462341315993</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23905,7 +23907,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23972,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>187.9942390719855</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>28.19308339576241</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>224.7350692269052</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>96.14494677818635</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.80712985016746</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>92.88371771721944</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>37.84312462897394</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
@@ -24649,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>26.00588493933768</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>122.1342575031568</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>125.9388090533454</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>134.6847134965115</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24932,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.4815158241593</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>121.5200076534635</v>
       </c>
     </row>
     <row r="35">
@@ -25157,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25172,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25217,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>25.66401796922162</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,19 +25314,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>136.5687807321344</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>81.90257201534689</v>
       </c>
       <c r="T37" t="n">
         <v>237.1532516330649</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25397,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>45.84716204233325</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25564,10 +25566,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>102.9377008028307</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>201.0751057407483</v>
       </c>
     </row>
     <row r="41">
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>205.153515636484</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>104.2969164554748</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.5484705942793</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>205.153515636484</v>
+        <v>96.14494677818681</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>52.86922517028571</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>48.51506501616805</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>495192.1539025088</v>
+        <v>622744.6352004515</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>495192.1539025087</v>
+        <v>622744.6352004514</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>622744.6352004515</v>
+        <v>622744.6352004514</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>622744.6352004514</v>
+        <v>622744.6352004512</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>622744.6352004511</v>
+        <v>622744.6352004514</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>622744.6352004514</v>
+        <v>622744.6352004512</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>622744.6352004512</v>
+        <v>622744.6352004514</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495192.1539025086</v>
+        <v>622744.6352004514</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>495192.1539025088</v>
+        <v>622744.6352004514</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26316,28 @@
         <v>439782.4611876337</v>
       </c>
       <c r="C2" t="n">
-        <v>439782.4611876338</v>
+        <v>439782.4611876339</v>
       </c>
       <c r="D2" t="n">
-        <v>439782.4611876338</v>
+        <v>439782.461187634</v>
       </c>
       <c r="E2" t="n">
-        <v>310934.6082643661</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="F2" t="n">
-        <v>310934.6082643662</v>
+        <v>391025.7011723766</v>
       </c>
       <c r="G2" t="n">
+        <v>391025.7011723768</v>
+      </c>
+      <c r="H2" t="n">
         <v>391025.7011723769</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>391025.7011723769</v>
+      </c>
+      <c r="J2" t="n">
         <v>391025.7011723768</v>
-      </c>
-      <c r="I2" t="n">
-        <v>391025.7011723768</v>
-      </c>
-      <c r="J2" t="n">
-        <v>391025.7011723766</v>
       </c>
       <c r="K2" t="n">
         <v>391025.7011723768</v>
@@ -26344,16 +26346,16 @@
         <v>391025.7011723768</v>
       </c>
       <c r="M2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723767</v>
       </c>
       <c r="N2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="O2" t="n">
-        <v>310934.6082643664</v>
+        <v>391025.7011723768</v>
       </c>
       <c r="P2" t="n">
-        <v>310934.6082643662</v>
+        <v>391025.7011723769</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>83798.41355755916</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105276.4874158736</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
-        <v>66756.38191600547</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>155118.3712081971</v>
       </c>
       <c r="C4" t="n">
-        <v>109507.8113471599</v>
+        <v>155118.3712081971</v>
       </c>
       <c r="D4" t="n">
-        <v>109507.8113471599</v>
+        <v>57848.94447198567</v>
       </c>
       <c r="E4" t="n">
-        <v>556.5340045633328</v>
+        <v>738.1279301446464</v>
       </c>
       <c r="F4" t="n">
-        <v>556.5340045633328</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="G4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="H4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="I4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446464</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446466</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="M4" t="n">
         <v>738.1279301446465</v>
       </c>
       <c r="N4" t="n">
+        <v>738.1279301446465</v>
+      </c>
+      <c r="O4" t="n">
         <v>738.1279301446466</v>
       </c>
-      <c r="O4" t="n">
-        <v>556.5340045633329</v>
-      </c>
       <c r="P4" t="n">
-        <v>556.5340045633329</v>
+        <v>738.1279301446465</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>81139.43288060633</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>81139.43288060633</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
-        <v>47511.83288060634</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>47511.83288060634</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>47511.83288060634</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>47511.83288060634</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44339.51500782507</v>
+        <v>44339.51500782499</v>
       </c>
       <c r="C6" t="n">
-        <v>165336.8034023085</v>
+        <v>219295.0249009392</v>
       </c>
       <c r="D6" t="n">
-        <v>249135.2169598676</v>
+        <v>111104.9764503796</v>
       </c>
       <c r="E6" t="n">
-        <v>262866.2413791964</v>
+        <v>292453.4088164245</v>
       </c>
       <c r="F6" t="n">
-        <v>262866.2413791965</v>
+        <v>319422.3629973587</v>
       </c>
       <c r="G6" t="n">
-        <v>214145.8755814852</v>
+        <v>319422.3629973588</v>
       </c>
       <c r="H6" t="n">
+        <v>319422.362997359</v>
+      </c>
+      <c r="I6" t="n">
+        <v>319422.362997359</v>
+      </c>
+      <c r="J6" t="n">
+        <v>182827.5621914639</v>
+      </c>
+      <c r="K6" t="n">
         <v>319422.3629973588</v>
       </c>
-      <c r="I6" t="n">
-        <v>319422.3629973588</v>
-      </c>
-      <c r="J6" t="n">
-        <v>182827.5621914637</v>
-      </c>
-      <c r="K6" t="n">
-        <v>252665.9810813533</v>
-      </c>
       <c r="L6" t="n">
-        <v>319422.3629973588</v>
+        <v>179423.0521326061</v>
       </c>
       <c r="M6" t="n">
-        <v>319422.3629973588</v>
+        <v>296913.0982233113</v>
       </c>
       <c r="N6" t="n">
         <v>319422.3629973588</v>
       </c>
       <c r="O6" t="n">
-        <v>262866.2413791967</v>
+        <v>319422.3629973588</v>
       </c>
       <c r="P6" t="n">
-        <v>262866.2413791965</v>
+        <v>319422.3629973589</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>781.4446197468147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>781.4446197468147</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>781.4446197468147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>781.4446197468147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>781.4446197468147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>781.4446197468147</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>259.3810493767892</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>384.1016013859702</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>259.3810493767892</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>259.3810493767892</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>384.1016013859702</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>171.7220431497196</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>235.2752207238901</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27546,7 +27548,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27555,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>5.910520431061315</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>193.4209809967736</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1776433348526893</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>240.053633488075</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>43.02919145391201</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>84.5905156930183</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.50097099635701</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>393.0160384451235</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>155.0990943701075</v>
+        <v>41.51131195515264</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>10.70163254908659</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>179.3869557635732</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34936,25 +34938,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>3.372931464469509</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>781.4446197468147</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>179.3869557635729</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>390.8459044639358</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
-        <v>219.1596241697113</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>781.4446197468147</v>
+        <v>426.5110626790972</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35252,19 +35254,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>781.4446197468147</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1977854202088</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
@@ -35273,7 +35275,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35416,22 +35418,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>781.4446197468147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>288.5866851497695</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>667.7658302215033</v>
@@ -35498,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4446197468147</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="O12" t="n">
-        <v>617.950353921076</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35653,13 +35655,13 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>781.4446197468147</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>149.5025096291731</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>493.5667432552367</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>278.8496521518734</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>435.3350991233255</v>
+        <v>146.9863618708281</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,10 +36141,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629454</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>405.4769987570326</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629454</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>618.4310134391651</v>
       </c>
       <c r="M27" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>292.2934897922533</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>234.0618456603421</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>530.6398807731025</v>
+        <v>90.3737668145198</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37552,7 +37554,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37625,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37786,10 +37788,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>646.1863173232118</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37798,10 +37800,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>405.4769987570328</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>781.4446197468147</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>574.6484159144032</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38032,13 +38034,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>419.8991266974883</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>781.4446197468147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>574.6484159144032</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>87.49261310237</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2006372.569710851</v>
+        <v>2005059.924255271</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789206</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>174.9215926043821</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>1.88208026001726</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>178.6173300078275</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>142.5359303380062</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>405.8457014450099</v>
+        <v>387.0919398873011</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,13 +1062,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>116.2725155264517</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>315.2026645613058</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1150,7 +1150,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1198,7 +1198,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>3.620925407613472</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>121.473502675362</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1378,7 +1378,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>372.3536886992977</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1426,7 +1426,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>216.6467621941107</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V13" t="n">
         <v>271.1468876098733</v>
@@ -1593,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>158.2299349797475</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1618,16 +1618,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>269.9562877695847</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>40.75750350403406</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>69.56255067400139</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,16 +1855,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>79.20507481715914</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -2058,7 +2058,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
@@ -2067,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>109.4349500296154</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>43.42340976889702</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>71.4744588433811</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>46.41181838296803</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>191.9284587841978</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2481,10 +2481,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>213.5397773370615</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2631698926538</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2569,7 +2569,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>96.0851398248662</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>155.8944499847356</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>157.8359084761803</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2803,7 +2803,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>380.4549498986235</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -2857,7 +2857,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>393.553766680214</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.88390027675852</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>84.38269596479049</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>271.4342543713331</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3046,10 +3046,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>149.3339408773903</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>100.9683339716594</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3277,16 +3277,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>304.7162152260364</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -3331,7 +3331,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>370.9729458835154</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>50.28298496947559</v>
       </c>
       <c r="S37" t="n">
-        <v>102.6252784235419</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3511,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>364.349651285939</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>257.7677368882639</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>237.9502514994623</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.41323588437463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>31.99018014062471</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>22.92681701721022</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>114.0837535539421</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -3948,25 +3948,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>165.4216953850578</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>219.2279701699388</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>300.4920170745502</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>143.8401299338261</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.3133602664314</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.990926276226</v>
+        <v>1292.371709779047</v>
       </c>
       <c r="C2" t="n">
-        <v>326.9067396299002</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D2" t="n">
-        <v>326.4832137633648</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>537.7254774811266</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
         <v>1054.568412147452</v>
       </c>
       <c r="M2" t="n">
-        <v>1571.411346813777</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N2" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>2086.353190308368</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1702.592889443536</v>
       </c>
       <c r="X2" t="n">
-        <v>740.1083749522213</v>
+        <v>1702.592889443536</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.1717019003114</v>
+        <v>1702.592889443536</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="L3" t="n">
-        <v>497.571341894901</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959275</v>
       </c>
       <c r="N3" t="n">
-        <v>1014.414276561226</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>322.7422574146847</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C4" t="n">
-        <v>322.7422574146847</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D4" t="n">
-        <v>322.7422574146847</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E4" t="n">
-        <v>322.7422574146847</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1305.469718463399</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1305.469718463399</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1022.671571009524</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V4" t="n">
-        <v>748.7858259490456</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W4" t="n">
-        <v>748.7858259490456</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X4" t="n">
-        <v>510.441963808729</v>
+        <v>1427.188295040345</v>
       </c>
       <c r="Y4" t="n">
-        <v>510.441963808729</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>888.1518680266704</v>
+        <v>465.1682704936311</v>
       </c>
       <c r="C5" t="n">
-        <v>478.2067150519129</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D5" t="n">
         <v>73.74278514497341</v>
@@ -4582,10 +4582,10 @@
         <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>1571.411346813777</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.912714533713</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>1695.912714533713</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.912714533713</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X5" t="n">
-        <v>1295.269316702666</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y5" t="n">
-        <v>894.3326436507558</v>
+        <v>875.3894501581206</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767163</v>
+        <v>187.8810127971426</v>
       </c>
       <c r="N6" t="n">
-        <v>1192.007362767163</v>
+        <v>704.7239474634679</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433488</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.3847151048558</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>749.2913426665723</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>589.7966979894823</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>472.349712609228</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>307.7185867198193</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
         <v>307.7185867198193</v>
@@ -4767,10 +4767,10 @@
         <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>1332.820120110135</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>1108.0844214989</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2541.96541775283</v>
+        <v>1740.93911629311</v>
       </c>
       <c r="C8" t="n">
-        <v>2131.840827066101</v>
+        <v>1734.854929646784</v>
       </c>
       <c r="D8" t="n">
-        <v>1727.376897159161</v>
+        <v>1416.468399786879</v>
       </c>
       <c r="E8" t="n">
-        <v>1313.036681676058</v>
+        <v>1002.128184303776</v>
       </c>
       <c r="F8" t="n">
-        <v>892.0062696297455</v>
+        <v>581.0977722574635</v>
       </c>
       <c r="G8" t="n">
-        <v>483.2779855225776</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="H8" t="n">
         <v>172.3694881502956</v>
@@ -4804,28 +4804,28 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>340.2031969351231</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K8" t="n">
-        <v>878.3626980441626</v>
+        <v>624.1772265764083</v>
       </c>
       <c r="L8" t="n">
-        <v>1590.9540978564</v>
+        <v>1336.768626388646</v>
       </c>
       <c r="M8" t="n">
-        <v>2013.200049908707</v>
+        <v>2113.0872173804</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547325</v>
+        <v>2866.268234019018</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.01192296443</v>
+        <v>3509.899090436123</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883581</v>
+        <v>4039.055788355275</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
         <v>4300.886273368438</v>
@@ -4846,10 +4846,10 @@
         <v>2952.740366840557</v>
       </c>
       <c r="X8" t="n">
-        <v>2949.082866428826</v>
+        <v>2552.096969009509</v>
       </c>
       <c r="Y8" t="n">
-        <v>2548.146193376916</v>
+        <v>2151.160295957599</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>734.6368392953007</v>
+        <v>278.830583030002</v>
       </c>
       <c r="L9" t="n">
-        <v>734.6368392953007</v>
+        <v>278.830583030002</v>
       </c>
       <c r="M9" t="n">
-        <v>734.6368392953007</v>
+        <v>525.3322192977264</v>
       </c>
       <c r="N9" t="n">
-        <v>734.6368392953007</v>
+        <v>1398.990311409344</v>
       </c>
       <c r="O9" t="n">
-        <v>1191.397044782725</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="P9" t="n">
-        <v>1753.102937271255</v>
+        <v>2102.947401955239</v>
       </c>
       <c r="Q9" t="n">
         <v>2102.947401955239</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>358.325688414803</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
-        <v>358.325688414803</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>358.325688414803</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>358.325688414803</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>235.6251806619121</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>235.6251806619121</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736876</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
         <v>86.01772546736876</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1104.203396620231</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>821.4052491663549</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>821.4052491663549</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>821.4052491663549</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>583.0613870260383</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="Y10" t="n">
-        <v>358.325688414803</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769081</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862142</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E11" t="n">
         <v>911.5343697921442</v>
@@ -5074,19 +5074,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.636833531609</v>
+        <v>4085.862211944715</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.79927886809</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003258</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>1210.13812587521</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M12" t="n">
-        <v>1210.13812587521</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N12" t="n">
-        <v>1578.027001052593</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O12" t="n">
-        <v>1578.027001052593</v>
+        <v>2126.665136613434</v>
       </c>
       <c r="P12" t="n">
         <v>2139.732893541123</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
         <v>93.2436976906228</v>
@@ -5232,19 +5232,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U13" t="n">
-        <v>1383.093855288175</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V13" t="n">
-        <v>1109.208110227697</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W13" t="n">
-        <v>830.1384457365714</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X13" t="n">
-        <v>670.3102285853113</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y13" t="n">
-        <v>445.574529974076</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5266,22 +5266,22 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F14" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G14" t="n">
-        <v>452.2785793327262</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5363,22 +5363,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="L15" t="n">
-        <v>286.056555253256</v>
+        <v>705.4904009953962</v>
       </c>
       <c r="M15" t="n">
-        <v>286.056555253256</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="N15" t="n">
-        <v>1159.714647364874</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.671737910768</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.671737910768</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>858.4517774252606</v>
+        <v>400.3663942394603</v>
       </c>
       <c r="C16" t="n">
-        <v>687.3584049869771</v>
+        <v>359.19719878084</v>
       </c>
       <c r="D16" t="n">
-        <v>687.3584049869771</v>
+        <v>359.19719878084</v>
       </c>
       <c r="E16" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G16" t="n">
         <v>359.19719878084</v>
@@ -5463,25 +5463,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>1153.452678737507</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>1153.452678737507</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W16" t="n">
-        <v>1083.187476036496</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="X16" t="n">
-        <v>1083.187476036496</v>
+        <v>588.0661006335047</v>
       </c>
       <c r="Y16" t="n">
-        <v>858.4517774252606</v>
+        <v>588.0661006335047</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>490.5039577458317</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1402.950983437843</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1548.467481689963</v>
+        <v>212.2732461996272</v>
       </c>
       <c r="N18" t="n">
-        <v>1548.467481689963</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="O18" t="n">
-        <v>1548.467481689963</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>173.2488237685613</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C19" t="n">
-        <v>173.2488237685613</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>913.9039397142094</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V19" t="n">
-        <v>640.0181946537314</v>
+        <v>837.543623783007</v>
       </c>
       <c r="W19" t="n">
-        <v>360.9485301626057</v>
+        <v>558.4739592918813</v>
       </c>
       <c r="X19" t="n">
-        <v>360.9485301626057</v>
+        <v>320.1300971515647</v>
       </c>
       <c r="Y19" t="n">
-        <v>360.9485301626057</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
         <v>1648.251106699488</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.3370701289063</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1465.17345291275</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>1225.624713889452</v>
       </c>
       <c r="U22" t="n">
-        <v>828.6312213896092</v>
+        <v>1225.624713889452</v>
       </c>
       <c r="V22" t="n">
-        <v>781.7505967603486</v>
+        <v>951.7389688289743</v>
       </c>
       <c r="W22" t="n">
-        <v>502.6809322692229</v>
+        <v>672.6693043378486</v>
       </c>
       <c r="X22" t="n">
-        <v>264.3370701289063</v>
+        <v>434.325442197532</v>
       </c>
       <c r="Y22" t="n">
-        <v>264.3370701289063</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6022,19 +6022,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4110.830195187051</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6068,19 +6068,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
         <v>1198.623017005979</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>423.8317148059963</v>
+        <v>425.2478852605868</v>
       </c>
       <c r="C25" t="n">
-        <v>252.7383423677128</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>828.6312213896092</v>
+        <v>1167.397110503264</v>
       </c>
       <c r="V25" t="n">
-        <v>648.5674134172316</v>
+        <v>1167.397110503264</v>
       </c>
       <c r="W25" t="n">
-        <v>648.5674134172316</v>
+        <v>888.3274460121388</v>
       </c>
       <c r="X25" t="n">
-        <v>648.5674134172316</v>
+        <v>649.9835838718221</v>
       </c>
       <c r="Y25" t="n">
-        <v>423.8317148059963</v>
+        <v>425.2478852605868</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2140.463105868917</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1730.338515182187</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1325.874585275247</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>911.5343697921442</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
         <v>490.5039577458317</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4565.129187738346</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4342.922703685204</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U26" t="n">
-        <v>4085.862211944715</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V26" t="n">
-        <v>3736.024657281195</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
-        <v>3352.264356416364</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2951.620958585316</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2550.684285533406</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>705.4904009953962</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>1548.467481689963</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N27" t="n">
-        <v>1548.467481689963</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>1548.467481689963</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260.4940887650794</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="C28" t="n">
-        <v>260.4940887650794</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="D28" t="n">
-        <v>260.4940887650794</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="E28" t="n">
-        <v>260.4940887650794</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="F28" t="n">
-        <v>260.4940887650794</v>
+        <v>367.0588849850195</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>951.9991582614847</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V28" t="n">
-        <v>951.9991582614847</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W28" t="n">
-        <v>672.929493770359</v>
+        <v>830.1384457365714</v>
       </c>
       <c r="X28" t="n">
-        <v>672.929493770359</v>
+        <v>591.7945835962548</v>
       </c>
       <c r="Y28" t="n">
-        <v>448.1937951591237</v>
+        <v>367.0588849850195</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2512.458907120301</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2102.334316433571</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1697.870386526632</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1283.530171043528</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>947.1447271725442</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>947.1447271725442</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N30" t="n">
-        <v>1820.802819284162</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O30" t="n">
-        <v>1820.802819284162</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P30" t="n">
-        <v>1820.802819284162</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>264.3370701289063</v>
+        <v>654.831235065794</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>569.5961886367127</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6645,28 +6645,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U31" t="n">
-        <v>828.6312213896092</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V31" t="n">
-        <v>828.6312213896092</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W31" t="n">
-        <v>549.5615568984836</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="X31" t="n">
-        <v>549.5615568984836</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="Y31" t="n">
-        <v>324.8258582872483</v>
+        <v>654.831235065794</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2238.282892603803</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1828.158301917073</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M33" t="n">
-        <v>324.9649248943615</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N33" t="n">
-        <v>1198.623017005979</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O33" t="n">
         <v>1198.623017005979</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>589.8790111499956</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C34" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
         <v>93.2436976906228</v>
@@ -6885,25 +6885,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.250826191383</v>
+        <v>1471.800229788857</v>
       </c>
       <c r="U34" t="n">
-        <v>1153.452678737507</v>
+        <v>1189.002082334981</v>
       </c>
       <c r="V34" t="n">
-        <v>879.5669336770293</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="W34" t="n">
-        <v>879.5669336770293</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X34" t="n">
-        <v>879.5669336770293</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y34" t="n">
-        <v>777.5787175440399</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2128.160977929772</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C35" t="n">
-        <v>1718.036387243042</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D35" t="n">
-        <v>1313.572457336103</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E35" t="n">
-        <v>899.2322418529996</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X35" t="n">
-        <v>2939.318830646172</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y35" t="n">
-        <v>2538.382157594262</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>93.2436976906228</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N36" t="n">
-        <v>966.9017898022406</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O36" t="n">
-        <v>1670.858880348135</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.328909494509</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
         <v>2110.173374178493</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>413.9445253234496</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="C37" t="n">
-        <v>242.8511528851661</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="D37" t="n">
-        <v>242.8511528851661</v>
+        <v>403.7619680168467</v>
       </c>
       <c r="E37" t="n">
         <v>242.8511528851661</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1571.851700402912</v>
       </c>
       <c r="S37" t="n">
-        <v>1433.707978589355</v>
+        <v>1385.459932282822</v>
       </c>
       <c r="T37" t="n">
-        <v>1433.707978589355</v>
+        <v>1145.911193259524</v>
       </c>
       <c r="U37" t="n">
-        <v>1150.90983113548</v>
+        <v>1145.911193259524</v>
       </c>
       <c r="V37" t="n">
-        <v>877.0240860750016</v>
+        <v>1145.911193259524</v>
       </c>
       <c r="W37" t="n">
-        <v>877.0240860750016</v>
+        <v>866.8415287683986</v>
       </c>
       <c r="X37" t="n">
-        <v>638.6802239346849</v>
+        <v>628.497666628082</v>
       </c>
       <c r="Y37" t="n">
-        <v>413.9445253234496</v>
+        <v>403.7619680168467</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2502.881125286859</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C38" t="n">
-        <v>2092.756534600129</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1688.29260469319</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
         <v>1320.262653899312</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X38" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y38" t="n">
-        <v>2913.102304951348</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>754.331869609911</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.027001052593</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>252.7383423677128</v>
+        <v>1017.946422102351</v>
       </c>
       <c r="C40" t="n">
-        <v>252.7383423677128</v>
+        <v>846.8530496640672</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>687.3584049869771</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7362,22 +7362,22 @@
         <v>1537.369875986873</v>
       </c>
       <c r="T40" t="n">
-        <v>1297.821136963575</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U40" t="n">
-        <v>1015.022989509699</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V40" t="n">
-        <v>741.1372444492208</v>
+        <v>1297.016086593476</v>
       </c>
       <c r="W40" t="n">
-        <v>462.0675799580952</v>
+        <v>1017.946422102351</v>
       </c>
       <c r="X40" t="n">
-        <v>462.0675799580952</v>
+        <v>1017.946422102351</v>
       </c>
       <c r="Y40" t="n">
-        <v>440.4380487617572</v>
+        <v>1017.946422102351</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4494.590496051882</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>3017.117917450102</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>3017.117917450102</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M42" t="n">
-        <v>3017.117917450102</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N42" t="n">
-        <v>3017.117917450102</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O42" t="n">
-        <v>3721.075007995997</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P42" t="n">
-        <v>4282.780900484527</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q42" t="n">
-        <v>4632.62536516851</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4222.119838211426</v>
+        <v>324.8258582872483</v>
       </c>
       <c r="C43" t="n">
-        <v>4051.026465773143</v>
+        <v>324.8258582872483</v>
       </c>
       <c r="D43" t="n">
-        <v>3891.531821096053</v>
+        <v>324.8258582872483</v>
       </c>
       <c r="E43" t="n">
-        <v>3730.621005964372</v>
+        <v>324.8258582872483</v>
       </c>
       <c r="F43" t="n">
-        <v>3565.989880074963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S43" t="n">
-        <v>4576.912166206539</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T43" t="n">
-        <v>4576.912166206539</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U43" t="n">
-        <v>4409.819544605471</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V43" t="n">
-        <v>4409.819544605471</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="W43" t="n">
-        <v>4409.819544605471</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="X43" t="n">
-        <v>4409.819544605471</v>
+        <v>549.5615568984836</v>
       </c>
       <c r="Y43" t="n">
-        <v>4409.819544605471</v>
+        <v>324.8258582872483</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H44" t="n">
         <v>179.5954603735497</v>
@@ -7651,7 +7651,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V44" t="n">
-        <v>4047.636833531609</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W44" t="n">
-        <v>3663.876532666778</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>1210.13812587521</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M45" t="n">
-        <v>2053.115206569777</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N45" t="n">
-        <v>2053.115206569777</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O45" t="n">
-        <v>2053.115206569777</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3680.765361756379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>3680.765361756379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>3521.270717079289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>3360.359901947609</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>3195.7287760582</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>3195.7287760582</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>3195.7287760582</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>4475.79311641105</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>4475.79311641105</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U46" t="n">
-        <v>4192.994968957174</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V46" t="n">
-        <v>3919.109223896696</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="W46" t="n">
-        <v>3919.109223896696</v>
+        <v>701.6163189813931</v>
       </c>
       <c r="X46" t="n">
-        <v>3680.765361756379</v>
+        <v>463.2724568410765</v>
       </c>
       <c r="Y46" t="n">
-        <v>3680.765361756379</v>
+        <v>238.5367582298412</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>590.1064824525349</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>90.03380439915205</v>
@@ -8060,7 +8060,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
@@ -8069,16 +8069,16 @@
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>237.1384347635731</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>525.371627415828</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8230,13 +8230,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>337.4068669225207</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8297,28 +8297,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>236.9512395019904</v>
+        <v>205.1561293621958</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8461,7 +8461,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>519.8012871361426</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
         <v>853.701196452193</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>354.5090417861859</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,25 +8534,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>306.5558355239976</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>519.1254239367923</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8710,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,19 +8774,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>424.7983178153489</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>67.45938947521694</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8935,7 +8935,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
@@ -9011,25 +9011,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>479.785075065536</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>335.5422706567122</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>204.5506456092455</v>
+        <v>177.79615091923</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>529.7246381472005</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>463.04128249545</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
@@ -9953,16 +9953,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>674.5455372500141</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
@@ -9977,7 +9977,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>723.8803540323523</v>
@@ -10202,19 +10202,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>348.986108297092</v>
+        <v>233.5370807419598</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
@@ -10436,13 +10436,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>291.6261293987595</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>144.6334018173235</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N39" t="n">
-        <v>885.2086776792871</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11077,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>461.3027815416482</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11375,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
@@ -11384,7 +11384,7 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
@@ -11393,7 +11393,7 @@
         <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>141.7522481051737</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>37.84312462897452</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>37.84312462897432</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>77.73048853916595</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>37.84312462897446</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>128.6249352098666</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>206.716417172213</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>102.5059940158882</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>78.69462341315993</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23910,7 +23910,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>113.0533915955076</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24147,7 +24147,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>113.0533915955077</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>224.7350692269052</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>62.56142803888719</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>66.4303886422756</v>
       </c>
       <c r="V25" t="n">
-        <v>92.88371771721944</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>37.84312462897394</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24615,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>9.683437178976391</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>122.1342575031568</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>36.36515802722585</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>3.083197172522944</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>125.9388090533454</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>84.99974274911017</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -24852,10 +24852,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>134.6847134965115</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25125,10 +25125,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>87.81931075567465</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.5200076534635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.08319717252283</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>25.66401796922162</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>34.13700617187876</v>
       </c>
       <c r="S37" t="n">
-        <v>81.90257201534689</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>45.84716204233325</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>88.57144222862024</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>33.19663611041099</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.0751057407483</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>187.994239071985</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>48.90106107657259</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.5484705942793</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>88.57144222862041</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>96.14494677818681</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>41.9825793962778</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26043,7 +26043,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>52.86922517028571</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>622744.6352004514</v>
+        <v>622744.6352004515</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>622744.6352004514</v>
+        <v>622744.6352004515</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>622744.6352004512</v>
+        <v>622744.6352004514</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>622744.6352004514</v>
+        <v>622744.6352004515</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>622744.6352004515</v>
+        <v>622744.6352004514</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>622744.6352004512</v>
+        <v>622744.6352004515</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>622744.6352004515</v>
+        <v>622744.6352004514</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>622744.6352004514</v>
+        <v>622744.6352004516</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>439782.4611876336</v>
+      </c>
+      <c r="C2" t="n">
         <v>439782.4611876337</v>
       </c>
-      <c r="C2" t="n">
-        <v>439782.4611876339</v>
-      </c>
       <c r="D2" t="n">
-        <v>439782.461187634</v>
+        <v>439782.4611876337</v>
       </c>
       <c r="E2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="F2" t="n">
+        <v>391025.7011723768</v>
+      </c>
+      <c r="G2" t="n">
         <v>391025.7011723766</v>
       </c>
-      <c r="G2" t="n">
-        <v>391025.7011723768</v>
-      </c>
       <c r="H2" t="n">
-        <v>391025.7011723769</v>
+        <v>391025.7011723767</v>
       </c>
       <c r="I2" t="n">
         <v>391025.7011723769</v>
       </c>
       <c r="J2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="K2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723767</v>
       </c>
       <c r="L2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723766</v>
       </c>
       <c r="M2" t="n">
-        <v>391025.7011723767</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="N2" t="n">
-        <v>391025.7011723768</v>
+        <v>391025.7011723769</v>
       </c>
       <c r="O2" t="n">
         <v>391025.7011723768</v>
       </c>
       <c r="P2" t="n">
-        <v>391025.7011723769</v>
+        <v>391025.7011723768</v>
       </c>
     </row>
     <row r="3">
@@ -26426,40 +26426,40 @@
         <v>57848.94447198567</v>
       </c>
       <c r="E4" t="n">
-        <v>738.1279301446464</v>
+        <v>738.1279301446465</v>
       </c>
       <c r="F4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="G4" t="n">
+        <v>738.1279301446466</v>
+      </c>
+      <c r="H4" t="n">
         <v>738.1279301446465</v>
-      </c>
-      <c r="H4" t="n">
-        <v>738.1279301446466</v>
       </c>
       <c r="I4" t="n">
         <v>738.1279301446465</v>
       </c>
       <c r="J4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="K4" t="n">
-        <v>738.1279301446464</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="L4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="M4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="N4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
       <c r="O4" t="n">
         <v>738.1279301446466</v>
       </c>
       <c r="P4" t="n">
-        <v>738.1279301446465</v>
+        <v>738.1279301446466</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44339.51500782499</v>
+        <v>44339.51500782483</v>
       </c>
       <c r="C6" t="n">
-        <v>219295.0249009392</v>
+        <v>219295.0249009391</v>
       </c>
       <c r="D6" t="n">
-        <v>111104.9764503796</v>
+        <v>111104.9764503794</v>
       </c>
       <c r="E6" t="n">
-        <v>292453.4088164245</v>
+        <v>292272.8282237754</v>
       </c>
       <c r="F6" t="n">
-        <v>319422.3629973587</v>
+        <v>319241.7824047097</v>
       </c>
       <c r="G6" t="n">
-        <v>319422.3629973588</v>
+        <v>319241.7824047095</v>
       </c>
       <c r="H6" t="n">
-        <v>319422.362997359</v>
+        <v>319241.7824047096</v>
       </c>
       <c r="I6" t="n">
-        <v>319422.362997359</v>
+        <v>319241.7824047098</v>
       </c>
       <c r="J6" t="n">
-        <v>182827.5621914639</v>
+        <v>182646.9815988149</v>
       </c>
       <c r="K6" t="n">
-        <v>319422.3629973588</v>
+        <v>319241.7824047096</v>
       </c>
       <c r="L6" t="n">
-        <v>179423.0521326061</v>
+        <v>179242.4715399568</v>
       </c>
       <c r="M6" t="n">
-        <v>296913.0982233113</v>
+        <v>296732.5176306624</v>
       </c>
       <c r="N6" t="n">
-        <v>319422.3629973588</v>
+        <v>319241.7824047098</v>
       </c>
       <c r="O6" t="n">
-        <v>319422.3629973588</v>
+        <v>319241.7824047097</v>
       </c>
       <c r="P6" t="n">
-        <v>319422.3629973589</v>
+        <v>319241.7824047097</v>
       </c>
     </row>
   </sheetData>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>400</v>
-      </c>
-      <c r="E2" t="n">
-        <v>235.2752207238901</v>
-      </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>344.4570988568669</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>5.910520431061315</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>93.42449318090726</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18.93140489256149</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1776433348526893</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>43.02919145391201</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>85.21662604656427</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>393.0160384451235</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>41.51131195515264</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
+        <v>244.2170912967376</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>179.3869557635732</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>471.1119924130243</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>244.2170912967376</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>147.5918456237783</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>179.3869557635729</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35181,7 +35181,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>426.5110626790972</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
         <v>760.7889056955737</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>264.4752373870339</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>248.9915517855802</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3739449367923</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35430,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>371.6049244215989</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>13.19975447241319</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35655,7 +35655,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>423.670551254687</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>278.8496521518734</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>146.9863618708281</v>
+        <v>120.2318671808126</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>473.6101143363514</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>405.4769987570326</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>618.4310134391651</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>667.7658302215033</v>
@@ -36922,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.2934897922533</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>234.0618456603421</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>90.3737668145198</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>29.85810036629282</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N39" t="n">
-        <v>832.0152842855372</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37797,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>405.4769987570328</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -38019,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
@@ -38104,7 +38104,7 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>87.49261310237</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
